--- a/opamp.xlsx
+++ b/opamp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pablo_RC\Universidad\Cuarto\MN\Proyecto1MN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF703E4D-FBC8-4DC9-8492-2855A305FFFC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16E2CA36-DE55-4CBB-9E3C-39F7FBB98B70}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1800" yWindow="3120" windowWidth="27000" windowHeight="12480" xr2:uid="{064334DA-E958-4585-B03B-1E7E2119B02D}"/>
+    <workbookView xWindow="1800" yWindow="1950" windowWidth="27000" windowHeight="12480" xr2:uid="{064334DA-E958-4585-B03B-1E7E2119B02D}"/>
   </bookViews>
   <sheets>
     <sheet name="opamp" sheetId="1" r:id="rId1"/>
